--- a/06_납품현황/2017/02_광명호반/04_CCM/CCM2/PGS_CCMApp/SystemData/시리얼번호_CCM1(광명B2).xlsx
+++ b/06_납품현황/2017/02_광명호반/04_CCM/CCM2/PGS_CCMApp/SystemData/시리얼번호_CCM1(광명B2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\igs_svn_data\PROJECT_02\06_납품현황\2017\02_광명호반\04_CCM\CCM2\PGS_CCMApp\SystemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\02_광명호반\04_CCM\CCM2\PGS_CCMApp\SystemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,132 +455,132 @@
       <selection activeCell="CH63" sqref="CH63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.0703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="6.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="7.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
     <col min="121" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
@@ -612,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="DO21" s="4"/>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="DO22" s="4"/>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="DO23" s="4"/>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="DO24" s="4"/>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="DO25" s="4"/>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="DO26" s="4"/>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -16890,7 +16890,7 @@
       <c r="DL53" s="6"/>
       <c r="DM53" s="5"/>
     </row>
-    <row r="54" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -17142,7 +17142,7 @@
       <c r="DL54" s="6"/>
       <c r="DM54" s="5"/>
     </row>
-    <row r="55" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -17394,7 +17394,7 @@
       <c r="DL55" s="6"/>
       <c r="DM55" s="5"/>
     </row>
-    <row r="56" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -17646,7 +17646,7 @@
       <c r="DL56" s="6"/>
       <c r="DM56" s="5"/>
     </row>
-    <row r="57" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="DL57" s="6"/>
       <c r="DM57" s="5"/>
     </row>
-    <row r="58" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -18150,7 +18150,7 @@
       <c r="DL58" s="6"/>
       <c r="DM58" s="5"/>
     </row>
-    <row r="59" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -18402,7 +18402,7 @@
       <c r="DL59" s="6"/>
       <c r="DM59" s="5"/>
     </row>
-    <row r="60" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -18654,7 +18654,7 @@
       <c r="DL60" s="6"/>
       <c r="DM60" s="5"/>
     </row>
-    <row r="61" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -18906,7 +18906,7 @@
       <c r="DL61" s="6"/>
       <c r="DM61" s="5"/>
     </row>
-    <row r="62" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -19158,7 +19158,7 @@
       <c r="DL62" s="6"/>
       <c r="DM62" s="5"/>
     </row>
-    <row r="63" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -19370,7 +19370,7 @@
       <c r="DL63" s="6"/>
       <c r="DM63" s="5"/>
     </row>
-    <row r="64" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -19582,7 +19582,7 @@
       <c r="DL64" s="6"/>
       <c r="DM64" s="5"/>
     </row>
-    <row r="65" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="DL65" s="6"/>
       <c r="DM65" s="5"/>
     </row>
-    <row r="66" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -20006,7 +20006,7 @@
       <c r="DL66" s="6"/>
       <c r="DM66" s="5"/>
     </row>
-    <row r="67" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -20158,7 +20158,7 @@
       <c r="DL67" s="6"/>
       <c r="DM67" s="5"/>
     </row>
-    <row r="68" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -20310,7 +20310,7 @@
       <c r="DL68" s="6"/>
       <c r="DM68" s="5"/>
     </row>
-    <row r="69" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -20416,7 +20416,7 @@
       <c r="DL69" s="6"/>
       <c r="DM69" s="5"/>
     </row>
-    <row r="70" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -20516,7 +20516,7 @@
       <c r="DL70" s="6"/>
       <c r="DM70" s="5"/>
     </row>
-    <row r="71" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:117" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -20639,34 +20639,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
-      <selection activeCell="F780" sqref="F780"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="J457" sqref="J457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="8"/>
-    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.09765625" style="8"/>
-    <col min="7" max="8" width="9.09765625" style="9"/>
+    <col min="1" max="1" width="9.0703125" style="8"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.0703125" style="8"/>
+    <col min="7" max="8" width="9.0703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -22348,7 +22348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -22580,7 +22580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -22696,12 +22696,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8">
         <v>129</v>
       </c>
@@ -22712,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8">
         <v>130</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8">
         <v>131</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8">
         <v>132</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8">
         <v>133</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8">
         <v>134</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8">
         <v>135</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8">
         <v>136</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8">
         <v>137</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8">
         <v>138</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8">
         <v>139</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8">
         <v>140</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8">
         <v>141</v>
       </c>
@@ -22844,7 +22844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8">
         <v>142</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8">
         <v>143</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8">
         <v>144</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8">
         <v>145</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8">
         <v>146</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8">
         <v>147</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8">
         <v>148</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8">
         <v>149</v>
       </c>
@@ -22932,7 +22932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8">
         <v>150</v>
       </c>
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8">
         <v>151</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8">
         <v>152</v>
       </c>
@@ -22965,22 +22965,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8">
         <v>1</v>
       </c>
@@ -23009,7 +23009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8">
         <v>2</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8">
         <v>3</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8">
         <v>4</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8">
         <v>5</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8">
         <v>6</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8">
         <v>7</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8">
         <v>8</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8">
         <v>9</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8">
         <v>10</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8">
         <v>11</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8">
         <v>12</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8">
         <v>13</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8">
         <v>14</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8">
         <v>15</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8">
         <v>16</v>
       </c>
@@ -23444,7 +23444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8">
         <v>17</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8">
         <v>18</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8">
         <v>19</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8">
         <v>20</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8">
         <v>21</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8">
         <v>22</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8">
         <v>23</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8">
         <v>24</v>
       </c>
@@ -23676,7 +23676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8">
         <v>25</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8">
         <v>26</v>
       </c>
@@ -23734,12 +23734,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8">
         <v>27</v>
       </c>
       <c r="B132" s="1">
-        <v>905</v>
+        <v>7008</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -23763,7 +23763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8">
         <v>28</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8">
         <v>29</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8">
         <v>30</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8">
         <v>31</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8">
         <v>32</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8">
         <v>33</v>
       </c>
@@ -23937,7 +23937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8">
         <v>34</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8">
         <v>35</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8">
         <v>36</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8">
         <v>37</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8">
         <v>38</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8">
         <v>39</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8">
         <v>40</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8">
         <v>41</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8">
         <v>42</v>
       </c>
@@ -24198,7 +24198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8">
         <v>43</v>
       </c>
@@ -24227,7 +24227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8">
         <v>44</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8">
         <v>45</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8">
         <v>46</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8">
         <v>47</v>
       </c>
@@ -24343,7 +24343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8">
         <v>48</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8">
         <v>49</v>
       </c>
@@ -24401,7 +24401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8">
         <v>50</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8">
         <v>51</v>
       </c>
@@ -24459,7 +24459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8">
         <v>52</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8">
         <v>53</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8">
         <v>54</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8">
         <v>55</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8">
         <v>56</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8">
         <v>57</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8">
         <v>58</v>
       </c>
@@ -24662,7 +24662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8">
         <v>59</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8">
         <v>60</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8">
         <v>61</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8">
         <v>62</v>
       </c>
@@ -24778,7 +24778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8">
         <v>63</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8">
         <v>64</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8">
         <v>65</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8">
         <v>66</v>
       </c>
@@ -24894,12 +24894,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8">
         <v>129</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8">
         <v>130</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8">
         <v>131</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8">
         <v>132</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8">
         <v>133</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8">
         <v>134</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8">
         <v>135</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8">
         <v>136</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8">
         <v>137</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8">
         <v>138</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8">
         <v>139</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8">
         <v>140</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8">
         <v>141</v>
       </c>
@@ -25042,7 +25042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8">
         <v>142</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8">
         <v>143</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8">
         <v>144</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8">
         <v>145</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8">
         <v>146</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8">
         <v>147</v>
       </c>
@@ -25108,7 +25108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8">
         <v>148</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8">
         <v>149</v>
       </c>
@@ -25130,7 +25130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8">
         <v>150</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8">
         <v>151</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8">
         <v>152</v>
       </c>
@@ -25163,22 +25163,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="8">
         <v>1</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="8">
         <v>2</v>
       </c>
@@ -25236,7 +25236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="8">
         <v>3</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="8">
         <v>4</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="8">
         <v>5</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="8">
         <v>6</v>
       </c>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="8">
         <v>7</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="8">
         <v>8</v>
       </c>
@@ -25410,7 +25410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="8">
         <v>9</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="8">
         <v>10</v>
       </c>
@@ -25468,7 +25468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="8">
         <v>11</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="8">
         <v>12</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="8">
         <v>13</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="8">
         <v>14</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="8">
         <v>15</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="8">
         <v>16</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="8">
         <v>17</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="8">
         <v>18</v>
       </c>
@@ -25700,7 +25700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="8">
         <v>19</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="8">
         <v>20</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="8">
         <v>21</v>
       </c>
@@ -25787,7 +25787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="8">
         <v>22</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="8">
         <v>23</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="8">
         <v>24</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="8">
         <v>25</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="8">
         <v>26</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="8">
         <v>27</v>
       </c>
@@ -25961,7 +25961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="8">
         <v>28</v>
       </c>
@@ -25990,7 +25990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="8">
         <v>29</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="8">
         <v>30</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="8">
         <v>31</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="8">
         <v>32</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="8">
         <v>33</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="8">
         <v>34</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="8">
         <v>35</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="8">
         <v>36</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="8">
         <v>37</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="8">
         <v>38</v>
       </c>
@@ -26280,7 +26280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="8">
         <v>39</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="8">
         <v>40</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="8">
         <v>41</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="8">
         <v>42</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="8">
         <v>43</v>
       </c>
@@ -26425,7 +26425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="8">
         <v>44</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="8">
         <v>45</v>
       </c>
@@ -26483,7 +26483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="8">
         <v>46</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="8">
         <v>47</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="8">
         <v>48</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="8">
         <v>49</v>
       </c>
@@ -26599,7 +26599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="8">
         <v>50</v>
       </c>
@@ -26628,7 +26628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="8">
         <v>51</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="8">
         <v>52</v>
       </c>
@@ -26686,7 +26686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="8">
         <v>53</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="8">
         <v>54</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="8">
         <v>55</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="8">
         <v>56</v>
       </c>
@@ -26802,7 +26802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="8">
         <v>57</v>
       </c>
@@ -26831,7 +26831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="8">
         <v>58</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="8">
         <v>59</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="8">
         <v>60</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="8">
         <v>61</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="8">
         <v>62</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="8">
         <v>63</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="8">
         <v>64</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="8">
         <v>65</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="8">
         <v>66</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="8">
         <v>67</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="8">
         <v>68</v>
       </c>
@@ -27150,7 +27150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="8">
         <v>69</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="8">
         <v>70</v>
       </c>
@@ -27208,12 +27208,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="8">
         <v>129</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="8">
         <v>130</v>
       </c>
@@ -27235,7 +27235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="8">
         <v>131</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="8">
         <v>132</v>
       </c>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="8">
         <v>133</v>
       </c>
@@ -27268,7 +27268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="8">
         <v>134</v>
       </c>
@@ -27279,7 +27279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="8">
         <v>135</v>
       </c>
@@ -27290,7 +27290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="8">
         <v>136</v>
       </c>
@@ -27301,7 +27301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="8">
         <v>137</v>
       </c>
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="8">
         <v>138</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="8">
         <v>139</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="8">
         <v>140</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="8">
         <v>141</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="8">
         <v>142</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="8">
         <v>143</v>
       </c>
@@ -27378,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="8">
         <v>144</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="8">
         <v>145</v>
       </c>
@@ -27400,7 +27400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="8">
         <v>146</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="8">
         <v>147</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="8">
         <v>148</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="8">
         <v>149</v>
       </c>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="8">
         <v>150</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="8">
         <v>151</v>
       </c>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="8">
         <v>152</v>
       </c>
@@ -27477,22 +27477,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="8">
         <v>1</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="8">
         <v>2</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="8">
         <v>3</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="8">
         <v>4</v>
       </c>
@@ -27608,7 +27608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="8">
         <v>5</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="8">
         <v>6</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="8">
         <v>7</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="8">
         <v>8</v>
       </c>
@@ -27724,7 +27724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="8">
         <v>9</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="8">
         <v>10</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="8">
         <v>11</v>
       </c>
@@ -27811,7 +27811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="8">
         <v>12</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="8">
         <v>13</v>
       </c>
@@ -27869,7 +27869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="8">
         <v>14</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="8">
         <v>15</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="8">
         <v>16</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="8">
         <v>17</v>
       </c>
@@ -27985,7 +27985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="8">
         <v>18</v>
       </c>
@@ -28014,7 +28014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="8">
         <v>19</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="8">
         <v>20</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="8">
         <v>21</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="8">
         <v>22</v>
       </c>
@@ -28130,7 +28130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="8">
         <v>23</v>
       </c>
@@ -28159,7 +28159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="8">
         <v>24</v>
       </c>
@@ -28188,7 +28188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="8">
         <v>25</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="8">
         <v>26</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="8">
         <v>27</v>
       </c>
@@ -28275,7 +28275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="8">
         <v>28</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="8">
         <v>29</v>
       </c>
@@ -28333,7 +28333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="8">
         <v>30</v>
       </c>
@@ -28362,7 +28362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="8">
         <v>31</v>
       </c>
@@ -28391,7 +28391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="8">
         <v>32</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="8">
         <v>33</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="8">
         <v>34</v>
       </c>
@@ -28478,7 +28478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="8">
         <v>35</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="8">
         <v>36</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="8">
         <v>37</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="8">
         <v>38</v>
       </c>
@@ -28594,7 +28594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="8">
         <v>39</v>
       </c>
@@ -28623,7 +28623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="8">
         <v>40</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="8">
         <v>41</v>
       </c>
@@ -28681,7 +28681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="8">
         <v>42</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="8">
         <v>43</v>
       </c>
@@ -28739,7 +28739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="8">
         <v>44</v>
       </c>
@@ -28768,7 +28768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="8">
         <v>45</v>
       </c>
@@ -28797,7 +28797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="8">
         <v>46</v>
       </c>
@@ -28826,7 +28826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="8">
         <v>47</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="8">
         <v>48</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="8">
         <v>49</v>
       </c>
@@ -28913,7 +28913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="8">
         <v>50</v>
       </c>
@@ -28942,7 +28942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="8">
         <v>51</v>
       </c>
@@ -28971,7 +28971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="8">
         <v>52</v>
       </c>
@@ -29000,7 +29000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="8">
         <v>53</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="8">
         <v>54</v>
       </c>
@@ -29058,7 +29058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="8">
         <v>55</v>
       </c>
@@ -29087,7 +29087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="8">
         <v>56</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="8">
         <v>57</v>
       </c>
@@ -29145,7 +29145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="8">
         <v>58</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="8">
         <v>59</v>
       </c>
@@ -29203,7 +29203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="8">
         <v>60</v>
       </c>
@@ -29232,7 +29232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="8">
         <v>61</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="8">
         <v>62</v>
       </c>
@@ -29290,7 +29290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="8">
         <v>63</v>
       </c>
@@ -29319,7 +29319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="8">
         <v>64</v>
       </c>
@@ -29348,7 +29348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="8">
         <v>65</v>
       </c>
@@ -29377,7 +29377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="8">
         <v>66</v>
       </c>
@@ -29406,12 +29406,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="8">
         <v>129</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="8">
         <v>130</v>
       </c>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="8">
         <v>131</v>
       </c>
@@ -29444,7 +29444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="8">
         <v>132</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="8">
         <v>133</v>
       </c>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="8">
         <v>134</v>
       </c>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="8">
         <v>135</v>
       </c>
@@ -29488,7 +29488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="8">
         <v>136</v>
       </c>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="8">
         <v>137</v>
       </c>
@@ -29510,7 +29510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="8">
         <v>138</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="8">
         <v>139</v>
       </c>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="8">
         <v>140</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="8">
         <v>141</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="8">
         <v>142</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="8">
         <v>143</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="8">
         <v>144</v>
       </c>
@@ -29587,7 +29587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="8">
         <v>145</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="8">
         <v>146</v>
       </c>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="8">
         <v>147</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="8">
         <v>148</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="8">
         <v>149</v>
       </c>
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="8">
         <v>150</v>
       </c>
@@ -29653,7 +29653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="8">
         <v>151</v>
       </c>
@@ -29664,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="8">
         <v>152</v>
       </c>
@@ -29675,22 +29675,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="8">
         <v>1</v>
       </c>
@@ -29719,7 +29719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="8">
         <v>2</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="8">
         <v>3</v>
       </c>
@@ -29777,7 +29777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="8">
         <v>4</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="8">
         <v>5</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="8">
         <v>6</v>
       </c>
@@ -29864,7 +29864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="8">
         <v>7</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="8">
         <v>8</v>
       </c>
@@ -29922,7 +29922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="8">
         <v>9</v>
       </c>
@@ -29951,7 +29951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="8">
         <v>10</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="8">
         <v>11</v>
       </c>
@@ -30009,7 +30009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="8">
         <v>12</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="8">
         <v>13</v>
       </c>
@@ -30067,7 +30067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="8">
         <v>14</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="8">
         <v>15</v>
       </c>
@@ -30125,7 +30125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="8">
         <v>16</v>
       </c>
@@ -30154,7 +30154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="8">
         <v>17</v>
       </c>
@@ -30183,7 +30183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="8">
         <v>18</v>
       </c>
@@ -30212,7 +30212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="8">
         <v>19</v>
       </c>
@@ -30241,7 +30241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="8">
         <v>20</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="8">
         <v>21</v>
       </c>
@@ -30299,7 +30299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="8">
         <v>22</v>
       </c>
@@ -30328,7 +30328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="8">
         <v>23</v>
       </c>
@@ -30357,7 +30357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="8">
         <v>24</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="8">
         <v>25</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="8">
         <v>26</v>
       </c>
@@ -30444,7 +30444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="8">
         <v>27</v>
       </c>
@@ -30473,7 +30473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="8">
         <v>28</v>
       </c>
@@ -30502,7 +30502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="8">
         <v>29</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="8">
         <v>30</v>
       </c>
@@ -30560,7 +30560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="8">
         <v>31</v>
       </c>
@@ -30589,7 +30589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="8">
         <v>32</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="8">
         <v>33</v>
       </c>
@@ -30647,7 +30647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="8">
         <v>34</v>
       </c>
@@ -30676,7 +30676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="8">
         <v>35</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="8">
         <v>36</v>
       </c>
@@ -30734,7 +30734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="8">
         <v>37</v>
       </c>
@@ -30763,7 +30763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="8">
         <v>38</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="8">
         <v>39</v>
       </c>
@@ -30821,7 +30821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="8">
         <v>40</v>
       </c>
@@ -30850,7 +30850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="8">
         <v>41</v>
       </c>
@@ -30879,7 +30879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="8">
         <v>42</v>
       </c>
@@ -30908,7 +30908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="8">
         <v>43</v>
       </c>
@@ -30937,7 +30937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="8">
         <v>44</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="8">
         <v>45</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="8">
         <v>46</v>
       </c>
@@ -31024,7 +31024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="8">
         <v>47</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="8">
         <v>48</v>
       </c>
@@ -31082,7 +31082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="8">
         <v>49</v>
       </c>
@@ -31111,7 +31111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="8">
         <v>50</v>
       </c>
@@ -31140,12 +31140,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="8">
         <v>51</v>
       </c>
       <c r="B457" s="1">
-        <v>1124</v>
+        <v>7012</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -31169,7 +31169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="8">
         <v>52</v>
       </c>
@@ -31198,7 +31198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="8">
         <v>53</v>
       </c>
@@ -31227,7 +31227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="8">
         <v>54</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="8">
         <v>55</v>
       </c>
@@ -31285,7 +31285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="8">
         <v>56</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="8">
         <v>57</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="8">
         <v>58</v>
       </c>
@@ -31372,7 +31372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="8">
         <v>59</v>
       </c>
@@ -31401,7 +31401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="8">
         <v>60</v>
       </c>
@@ -31430,7 +31430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="8">
         <v>61</v>
       </c>
@@ -31459,7 +31459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="8">
         <v>62</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="8">
         <v>63</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="8">
         <v>64</v>
       </c>
@@ -31546,12 +31546,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="8">
         <v>129</v>
       </c>
@@ -31562,7 +31562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="8">
         <v>130</v>
       </c>
@@ -31573,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="8">
         <v>131</v>
       </c>
@@ -31584,7 +31584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="8">
         <v>132</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="8">
         <v>133</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="8">
         <v>134</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="8">
         <v>135</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="8">
         <v>136</v>
       </c>
@@ -31639,7 +31639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="8">
         <v>137</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="8">
         <v>138</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="8">
         <v>139</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="8">
         <v>140</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="8">
         <v>141</v>
       </c>
@@ -31694,7 +31694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="8">
         <v>142</v>
       </c>
@@ -31705,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="8">
         <v>143</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="8">
         <v>144</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="8">
         <v>145</v>
       </c>
@@ -31738,7 +31738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="8">
         <v>146</v>
       </c>
@@ -31749,7 +31749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="8">
         <v>147</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="8">
         <v>148</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="8">
         <v>149</v>
       </c>
@@ -31782,7 +31782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="8">
         <v>150</v>
       </c>
@@ -31793,7 +31793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="8">
         <v>151</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="8">
         <v>152</v>
       </c>
@@ -31815,22 +31815,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="8">
         <v>1</v>
       </c>
@@ -31859,7 +31859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="8">
         <v>2</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="8">
         <v>3</v>
       </c>
@@ -31917,7 +31917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="8">
         <v>4</v>
       </c>
@@ -31946,7 +31946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="8">
         <v>5</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="8">
         <v>6</v>
       </c>
@@ -32004,7 +32004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="8">
         <v>7</v>
       </c>
@@ -32033,7 +32033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="8">
         <v>8</v>
       </c>
@@ -32062,7 +32062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="8">
         <v>9</v>
       </c>
@@ -32091,7 +32091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="8">
         <v>10</v>
       </c>
@@ -32120,7 +32120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="8">
         <v>11</v>
       </c>
@@ -32149,7 +32149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="8">
         <v>12</v>
       </c>
@@ -32178,7 +32178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="8">
         <v>13</v>
       </c>
@@ -32207,7 +32207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="8">
         <v>14</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="8">
         <v>15</v>
       </c>
@@ -32265,7 +32265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="8">
         <v>16</v>
       </c>
@@ -32294,7 +32294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="8">
         <v>17</v>
       </c>
@@ -32323,7 +32323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="8">
         <v>18</v>
       </c>
@@ -32352,7 +32352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="8">
         <v>19</v>
       </c>
@@ -32381,7 +32381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="8">
         <v>20</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="8">
         <v>21</v>
       </c>
@@ -32439,7 +32439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="8">
         <v>22</v>
       </c>
@@ -32468,7 +32468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="8">
         <v>23</v>
       </c>
@@ -32497,7 +32497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="8">
         <v>24</v>
       </c>
@@ -32526,7 +32526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="8">
         <v>25</v>
       </c>
@@ -32555,7 +32555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="8">
         <v>26</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="8">
         <v>27</v>
       </c>
@@ -32613,7 +32613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="8">
         <v>28</v>
       </c>
@@ -32642,7 +32642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="8">
         <v>29</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="8">
         <v>30</v>
       </c>
@@ -32700,7 +32700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="8">
         <v>31</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="8">
         <v>32</v>
       </c>
@@ -32758,7 +32758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="8">
         <v>33</v>
       </c>
@@ -32787,7 +32787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="8">
         <v>34</v>
       </c>
@@ -32816,7 +32816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="8">
         <v>35</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="8">
         <v>36</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="8">
         <v>37</v>
       </c>
@@ -32903,7 +32903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="8">
         <v>38</v>
       </c>
@@ -32932,7 +32932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="8">
         <v>39</v>
       </c>
@@ -32961,7 +32961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="8">
         <v>40</v>
       </c>
@@ -32990,7 +32990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="8">
         <v>41</v>
       </c>
@@ -33019,7 +33019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="8">
         <v>42</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="8">
         <v>43</v>
       </c>
@@ -33077,7 +33077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="8">
         <v>44</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="8">
         <v>45</v>
       </c>
@@ -33135,7 +33135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="8">
         <v>46</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="8">
         <v>47</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="8">
         <v>48</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="8">
         <v>49</v>
       </c>
@@ -33251,7 +33251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="8">
         <v>50</v>
       </c>
@@ -33280,7 +33280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="8">
         <v>51</v>
       </c>
@@ -33309,7 +33309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="8">
         <v>52</v>
       </c>
@@ -33338,7 +33338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="8">
         <v>53</v>
       </c>
@@ -33367,7 +33367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="8">
         <v>54</v>
       </c>
@@ -33396,7 +33396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="8">
         <v>55</v>
       </c>
@@ -33425,7 +33425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="8">
         <v>56</v>
       </c>
@@ -33454,7 +33454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="8">
         <v>57</v>
       </c>
@@ -33483,7 +33483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="8">
         <v>58</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="8">
         <v>59</v>
       </c>
@@ -33541,7 +33541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="8">
         <v>60</v>
       </c>
@@ -33570,7 +33570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="8">
         <v>61</v>
       </c>
@@ -33599,7 +33599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="8">
         <v>62</v>
       </c>
@@ -33628,7 +33628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="8">
         <v>63</v>
       </c>
@@ -33657,7 +33657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="8">
         <v>64</v>
       </c>
@@ -33686,12 +33686,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="8">
         <v>129</v>
       </c>
@@ -33702,7 +33702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="8">
         <v>130</v>
       </c>
@@ -33713,7 +33713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="8">
         <v>131</v>
       </c>
@@ -33724,7 +33724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="8">
         <v>132</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="8">
         <v>133</v>
       </c>
@@ -33746,7 +33746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="8">
         <v>134</v>
       </c>
@@ -33757,7 +33757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="8">
         <v>135</v>
       </c>
@@ -33768,7 +33768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="8">
         <v>136</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="8">
         <v>137</v>
       </c>
@@ -33790,7 +33790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="8">
         <v>138</v>
       </c>
@@ -33801,7 +33801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="8">
         <v>139</v>
       </c>
@@ -33812,7 +33812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="8">
         <v>140</v>
       </c>
@@ -33823,7 +33823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="8">
         <v>141</v>
       </c>
@@ -33834,7 +33834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="8">
         <v>142</v>
       </c>
@@ -33845,7 +33845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="8">
         <v>143</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="8">
         <v>144</v>
       </c>
@@ -33867,7 +33867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="8">
         <v>145</v>
       </c>
@@ -33878,7 +33878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="8">
         <v>146</v>
       </c>
@@ -33889,7 +33889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="8">
         <v>147</v>
       </c>
@@ -33900,7 +33900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="8">
         <v>148</v>
       </c>
@@ -33911,7 +33911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="8">
         <v>149</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="8">
         <v>150</v>
       </c>
@@ -33933,7 +33933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="8">
         <v>151</v>
       </c>
@@ -33944,7 +33944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="8">
         <v>152</v>
       </c>
@@ -33955,22 +33955,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="8">
         <v>1</v>
       </c>
@@ -33999,7 +33999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="8">
         <v>2</v>
       </c>
@@ -34028,7 +34028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="8">
         <v>3</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="8">
         <v>4</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="8">
         <v>5</v>
       </c>
@@ -34115,7 +34115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="8">
         <v>6</v>
       </c>
@@ -34144,7 +34144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="8">
         <v>7</v>
       </c>
@@ -34173,7 +34173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="8">
         <v>8</v>
       </c>
@@ -34202,7 +34202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="8">
         <v>9</v>
       </c>
@@ -34231,7 +34231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="8">
         <v>10</v>
       </c>
@@ -34260,7 +34260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="8">
         <v>11</v>
       </c>
@@ -34289,7 +34289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="8">
         <v>12</v>
       </c>
@@ -34318,7 +34318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="8">
         <v>13</v>
       </c>
@@ -34347,7 +34347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="8">
         <v>14</v>
       </c>
@@ -34376,7 +34376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="8">
         <v>15</v>
       </c>
@@ -34405,7 +34405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="8">
         <v>16</v>
       </c>
@@ -34434,7 +34434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="8">
         <v>17</v>
       </c>
@@ -34463,7 +34463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="8">
         <v>18</v>
       </c>
@@ -34492,7 +34492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="8">
         <v>19</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="8">
         <v>20</v>
       </c>
@@ -34550,7 +34550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="8">
         <v>21</v>
       </c>
@@ -34579,7 +34579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="8">
         <v>22</v>
       </c>
@@ -34608,7 +34608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="8">
         <v>23</v>
       </c>
@@ -34637,7 +34637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="8">
         <v>24</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="8">
         <v>25</v>
       </c>
@@ -34695,7 +34695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="8">
         <v>26</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="8">
         <v>27</v>
       </c>
@@ -34753,7 +34753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="8">
         <v>28</v>
       </c>
@@ -34782,7 +34782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="8">
         <v>29</v>
       </c>
@@ -34811,7 +34811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="8">
         <v>30</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="8">
         <v>31</v>
       </c>
@@ -34869,7 +34869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="8">
         <v>32</v>
       </c>
@@ -34898,7 +34898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="8">
         <v>33</v>
       </c>
@@ -34927,7 +34927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="8">
         <v>34</v>
       </c>
@@ -34956,7 +34956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="8">
         <v>35</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="8">
         <v>36</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="8">
         <v>37</v>
       </c>
@@ -35043,7 +35043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="8">
         <v>38</v>
       </c>
@@ -35072,7 +35072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="8">
         <v>39</v>
       </c>
@@ -35101,7 +35101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="8">
         <v>40</v>
       </c>
@@ -35130,7 +35130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="8">
         <v>41</v>
       </c>
@@ -35159,7 +35159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="8">
         <v>42</v>
       </c>
@@ -35188,7 +35188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="8">
         <v>43</v>
       </c>
@@ -35217,7 +35217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="8">
         <v>44</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="8">
         <v>45</v>
       </c>
@@ -35275,7 +35275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="8">
         <v>46</v>
       </c>
@@ -35304,7 +35304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="8">
         <v>47</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="8">
         <v>48</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="8">
         <v>49</v>
       </c>
@@ -35391,7 +35391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="8">
         <v>50</v>
       </c>
@@ -35420,7 +35420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="8">
         <v>51</v>
       </c>
@@ -35449,7 +35449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="8">
         <v>52</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="8">
         <v>53</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="8">
         <v>54</v>
       </c>
@@ -35536,7 +35536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="8">
         <v>55</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="8">
         <v>56</v>
       </c>
@@ -35594,7 +35594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="8">
         <v>57</v>
       </c>
@@ -35623,7 +35623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="8">
         <v>58</v>
       </c>
@@ -35652,7 +35652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="8">
         <v>59</v>
       </c>
@@ -35681,7 +35681,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="8">
         <v>60</v>
       </c>
@@ -35710,12 +35710,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="8">
         <v>129</v>
       </c>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="8">
         <v>130</v>
       </c>
@@ -35737,7 +35737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="8">
         <v>131</v>
       </c>
@@ -35748,7 +35748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="8">
         <v>132</v>
       </c>
@@ -35759,7 +35759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="8">
         <v>133</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="8">
         <v>134</v>
       </c>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="8">
         <v>135</v>
       </c>
@@ -35792,7 +35792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="8">
         <v>136</v>
       </c>
@@ -35803,7 +35803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="8">
         <v>137</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="8">
         <v>138</v>
       </c>
@@ -35825,7 +35825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="8">
         <v>139</v>
       </c>
@@ -35836,7 +35836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="8">
         <v>140</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="8">
         <v>141</v>
       </c>
@@ -35858,7 +35858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="8">
         <v>142</v>
       </c>
@@ -35869,7 +35869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="8">
         <v>143</v>
       </c>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="8">
         <v>144</v>
       </c>
@@ -35891,7 +35891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="8">
         <v>145</v>
       </c>
@@ -35902,7 +35902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="8">
         <v>146</v>
       </c>
@@ -35913,7 +35913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="8">
         <v>147</v>
       </c>
@@ -35924,7 +35924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="8">
         <v>148</v>
       </c>
@@ -35935,7 +35935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="8">
         <v>149</v>
       </c>
@@ -35946,7 +35946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="8">
         <v>150</v>
       </c>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="8">
         <v>1</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="8">
         <v>2</v>
       </c>
@@ -36030,7 +36030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="8">
         <v>3</v>
       </c>
@@ -36059,7 +36059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="8">
         <v>4</v>
       </c>
@@ -36088,7 +36088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="8">
         <v>5</v>
       </c>
@@ -36117,7 +36117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="8">
         <v>6</v>
       </c>
@@ -36146,7 +36146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="8">
         <v>7</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="8">
         <v>8</v>
       </c>
@@ -36204,7 +36204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="8">
         <v>9</v>
       </c>
@@ -36233,7 +36233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="8">
         <v>10</v>
       </c>
@@ -36262,7 +36262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="8">
         <v>11</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="8">
         <v>12</v>
       </c>
@@ -36320,7 +36320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="8">
         <v>13</v>
       </c>
@@ -36349,7 +36349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="8">
         <v>14</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="8">
         <v>15</v>
       </c>
@@ -36407,7 +36407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="8">
         <v>16</v>
       </c>
@@ -36436,7 +36436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="8">
         <v>17</v>
       </c>
@@ -36465,7 +36465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="8">
         <v>18</v>
       </c>
@@ -36494,7 +36494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="8">
         <v>19</v>
       </c>
@@ -36523,7 +36523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="8">
         <v>20</v>
       </c>
@@ -36552,7 +36552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="8">
         <v>21</v>
       </c>
@@ -36581,7 +36581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="8">
         <v>22</v>
       </c>
@@ -36610,7 +36610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="8">
         <v>23</v>
       </c>
@@ -36639,7 +36639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="8">
         <v>24</v>
       </c>
@@ -36668,7 +36668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="8">
         <v>25</v>
       </c>
@@ -36697,7 +36697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="8">
         <v>26</v>
       </c>
@@ -36726,7 +36726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="8">
         <v>27</v>
       </c>
@@ -36755,7 +36755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="8">
         <v>28</v>
       </c>
@@ -36784,7 +36784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="8">
         <v>29</v>
       </c>
@@ -36813,7 +36813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="8">
         <v>30</v>
       </c>
@@ -36842,7 +36842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="8">
         <v>31</v>
       </c>
@@ -36871,7 +36871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="8">
         <v>32</v>
       </c>
@@ -36900,7 +36900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="8">
         <v>33</v>
       </c>
@@ -36929,7 +36929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="8">
         <v>34</v>
       </c>
@@ -36958,7 +36958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="8">
         <v>35</v>
       </c>
@@ -36987,7 +36987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="8">
         <v>36</v>
       </c>
@@ -37016,7 +37016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="8">
         <v>37</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="8">
         <v>38</v>
       </c>
@@ -37074,7 +37074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="8">
         <v>39</v>
       </c>
@@ -37103,7 +37103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="8">
         <v>40</v>
       </c>
@@ -37132,7 +37132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="8">
         <v>41</v>
       </c>
@@ -37161,7 +37161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="8">
         <v>42</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="8">
         <v>43</v>
       </c>
@@ -37219,7 +37219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="8">
         <v>44</v>
       </c>
@@ -37248,7 +37248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="8">
         <v>45</v>
       </c>
@@ -37277,7 +37277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="8">
         <v>46</v>
       </c>
@@ -37306,7 +37306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="8">
         <v>47</v>
       </c>
@@ -37335,7 +37335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="8">
         <v>48</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="8">
         <v>49</v>
       </c>
@@ -37393,7 +37393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="8">
         <v>50</v>
       </c>
@@ -37422,7 +37422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="8">
         <v>51</v>
       </c>
@@ -37451,7 +37451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="8">
         <v>52</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="8">
         <v>53</v>
       </c>
@@ -37509,7 +37509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="8">
         <v>54</v>
       </c>
@@ -37538,7 +37538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="8">
         <v>55</v>
       </c>
@@ -37567,7 +37567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="8">
         <v>56</v>
       </c>
@@ -37596,7 +37596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="8">
         <v>57</v>
       </c>
@@ -37625,7 +37625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="8">
         <v>58</v>
       </c>
@@ -37654,7 +37654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="8">
         <v>59</v>
       </c>
@@ -37683,7 +37683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="8">
         <v>60</v>
       </c>
@@ -37712,12 +37712,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="8">
         <v>129</v>
       </c>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="8">
         <v>130</v>
       </c>
@@ -37739,7 +37739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="8">
         <v>131</v>
       </c>
@@ -37750,7 +37750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="8">
         <v>132</v>
       </c>
@@ -37761,7 +37761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="8">
         <v>133</v>
       </c>
@@ -37772,7 +37772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="8">
         <v>134</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="8">
         <v>135</v>
       </c>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="8">
         <v>136</v>
       </c>
@@ -37805,7 +37805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="8">
         <v>137</v>
       </c>
@@ -37816,7 +37816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="8">
         <v>138</v>
       </c>
@@ -37827,7 +37827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="8">
         <v>139</v>
       </c>
@@ -37838,7 +37838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="8">
         <v>140</v>
       </c>
@@ -37849,7 +37849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="8">
         <v>141</v>
       </c>
@@ -37860,7 +37860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="8">
         <v>142</v>
       </c>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="8">
         <v>143</v>
       </c>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="8">
         <v>144</v>
       </c>
@@ -37893,7 +37893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="8">
         <v>145</v>
       </c>
@@ -37904,7 +37904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="8">
         <v>146</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="8">
         <v>147</v>
       </c>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="8">
         <v>148</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="8">
         <v>149</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="8">
         <v>150</v>
       </c>
@@ -37959,22 +37959,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="8">
         <v>1</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="8">
         <v>2</v>
       </c>
@@ -38032,7 +38032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="8">
         <v>3</v>
       </c>
@@ -38061,7 +38061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="8">
         <v>4</v>
       </c>
@@ -38090,7 +38090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="8">
         <v>5</v>
       </c>
@@ -38119,7 +38119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="8">
         <v>6</v>
       </c>
@@ -38148,7 +38148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="8">
         <v>7</v>
       </c>
@@ -38177,7 +38177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="8">
         <v>8</v>
       </c>
@@ -38206,7 +38206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="8">
         <v>9</v>
       </c>
@@ -38235,7 +38235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="8">
         <v>10</v>
       </c>
@@ -38264,7 +38264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="8">
         <v>11</v>
       </c>
@@ -38293,7 +38293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="8">
         <v>12</v>
       </c>
@@ -38322,7 +38322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="8">
         <v>13</v>
       </c>
@@ -38351,7 +38351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="8">
         <v>14</v>
       </c>
@@ -38380,7 +38380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="8">
         <v>15</v>
       </c>
@@ -38409,7 +38409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="8">
         <v>16</v>
       </c>
@@ -38438,7 +38438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="8">
         <v>17</v>
       </c>
@@ -38467,7 +38467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="8">
         <v>18</v>
       </c>
@@ -38496,7 +38496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="8">
         <v>19</v>
       </c>
@@ -38525,7 +38525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="8">
         <v>20</v>
       </c>
@@ -38554,7 +38554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="8">
         <v>21</v>
       </c>
@@ -38583,7 +38583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="8">
         <v>22</v>
       </c>
@@ -38612,7 +38612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="8">
         <v>23</v>
       </c>
@@ -38641,7 +38641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="8">
         <v>24</v>
       </c>
@@ -38670,7 +38670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="8">
         <v>25</v>
       </c>
@@ -38699,7 +38699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="8">
         <v>26</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="8">
         <v>27</v>
       </c>
@@ -38757,7 +38757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="8">
         <v>28</v>
       </c>
@@ -38786,7 +38786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="8">
         <v>29</v>
       </c>
@@ -38815,7 +38815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="8">
         <v>30</v>
       </c>
@@ -38844,7 +38844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="8">
         <v>31</v>
       </c>
@@ -38873,7 +38873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="8">
         <v>32</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="8">
         <v>33</v>
       </c>
@@ -38931,7 +38931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="8">
         <v>34</v>
       </c>
@@ -38960,7 +38960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="8">
         <v>35</v>
       </c>
@@ -38989,7 +38989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="8">
         <v>36</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="8">
         <v>37</v>
       </c>
@@ -39047,7 +39047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="8">
         <v>38</v>
       </c>
@@ -39076,7 +39076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="8">
         <v>39</v>
       </c>
@@ -39105,7 +39105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="8">
         <v>40</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="8">
         <v>41</v>
       </c>
@@ -39163,7 +39163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="8">
         <v>42</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="8">
         <v>43</v>
       </c>
@@ -39221,7 +39221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="8">
         <v>44</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="8">
         <v>45</v>
       </c>
@@ -39279,7 +39279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="8">
         <v>46</v>
       </c>
@@ -39308,7 +39308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="8">
         <v>47</v>
       </c>
@@ -39337,7 +39337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="8">
         <v>48</v>
       </c>
@@ -39366,7 +39366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="8">
         <v>49</v>
       </c>
@@ -39395,7 +39395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="8">
         <v>50</v>
       </c>
@@ -39424,7 +39424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="8">
         <v>51</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="8">
         <v>52</v>
       </c>
@@ -39482,7 +39482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="8">
         <v>53</v>
       </c>
@@ -39511,7 +39511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="8">
         <v>54</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="8">
         <v>55</v>
       </c>
@@ -39569,7 +39569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="8">
         <v>56</v>
       </c>
@@ -39598,7 +39598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="8">
         <v>57</v>
       </c>
@@ -39627,7 +39627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="8">
         <v>58</v>
       </c>
@@ -39656,7 +39656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="8">
         <v>59</v>
       </c>
@@ -39685,7 +39685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="8">
         <v>60</v>
       </c>
@@ -39714,7 +39714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="8">
         <v>61</v>
       </c>
@@ -39743,7 +39743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="8">
         <v>62</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="8">
         <v>63</v>
       </c>
@@ -39801,7 +39801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="8">
         <v>64</v>
       </c>
@@ -39830,12 +39830,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="8">
         <v>129</v>
       </c>
@@ -39846,7 +39846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="8">
         <v>130</v>
       </c>
@@ -39857,7 +39857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="8">
         <v>131</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="8">
         <v>132</v>
       </c>
@@ -39879,7 +39879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="8">
         <v>133</v>
       </c>
@@ -39890,7 +39890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="8">
         <v>134</v>
       </c>
@@ -39901,7 +39901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="8">
         <v>135</v>
       </c>
@@ -39912,7 +39912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="8">
         <v>136</v>
       </c>
@@ -39923,7 +39923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="8">
         <v>137</v>
       </c>
@@ -39934,7 +39934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" s="8">
         <v>138</v>
       </c>
@@ -39945,7 +39945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" s="8">
         <v>139</v>
       </c>
@@ -39956,7 +39956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" s="8">
         <v>140</v>
       </c>
@@ -39967,7 +39967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" s="8">
         <v>141</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" s="8">
         <v>142</v>
       </c>
@@ -39989,7 +39989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" s="8">
         <v>143</v>
       </c>
@@ -40000,7 +40000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" s="8">
         <v>144</v>
       </c>
@@ -40011,7 +40011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" s="8">
         <v>145</v>
       </c>
@@ -40022,7 +40022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" s="8">
         <v>146</v>
       </c>
@@ -40033,7 +40033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" s="8">
         <v>147</v>
       </c>
@@ -40044,7 +40044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" s="8">
         <v>148</v>
       </c>
@@ -40055,7 +40055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" s="8">
         <v>149</v>
       </c>
@@ -40066,7 +40066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" s="8">
         <v>150</v>
       </c>
@@ -40077,22 +40077,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" s="8">
         <v>1</v>
       </c>
@@ -40121,7 +40121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" s="8">
         <v>2</v>
       </c>
@@ -40150,7 +40150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" s="8">
         <v>3</v>
       </c>
@@ -40179,7 +40179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" s="8">
         <v>4</v>
       </c>
@@ -40208,7 +40208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" s="8">
         <v>5</v>
       </c>
@@ -40237,7 +40237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" s="8">
         <v>6</v>
       </c>
@@ -40266,7 +40266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" s="8">
         <v>7</v>
       </c>
@@ -40295,7 +40295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" s="8">
         <v>8</v>
       </c>
@@ -40324,7 +40324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" s="8">
         <v>9</v>
       </c>
@@ -40353,7 +40353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" s="8">
         <v>10</v>
       </c>
@@ -40382,7 +40382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" s="8">
         <v>11</v>
       </c>
@@ -40411,7 +40411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" s="8">
         <v>12</v>
       </c>
@@ -40440,7 +40440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" s="8">
         <v>13</v>
       </c>
@@ -40469,7 +40469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" s="8">
         <v>14</v>
       </c>
@@ -40498,7 +40498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" s="8">
         <v>15</v>
       </c>
@@ -40527,7 +40527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" s="8">
         <v>16</v>
       </c>
@@ -40556,7 +40556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" s="8">
         <v>17</v>
       </c>
@@ -40585,7 +40585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" s="8">
         <v>18</v>
       </c>
@@ -40614,7 +40614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" s="8">
         <v>19</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" s="8">
         <v>20</v>
       </c>
@@ -40672,7 +40672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" s="8">
         <v>21</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" s="8">
         <v>22</v>
       </c>
@@ -40730,7 +40730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" s="8">
         <v>23</v>
       </c>
@@ -40759,7 +40759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" s="8">
         <v>24</v>
       </c>
@@ -40788,7 +40788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" s="8">
         <v>25</v>
       </c>
@@ -40817,7 +40817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" s="8">
         <v>26</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" s="8">
         <v>27</v>
       </c>
@@ -40875,7 +40875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" s="8">
         <v>28</v>
       </c>
@@ -40904,7 +40904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" s="8">
         <v>29</v>
       </c>
@@ -40933,7 +40933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" s="8">
         <v>30</v>
       </c>
@@ -40962,7 +40962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" s="8">
         <v>31</v>
       </c>
@@ -40991,7 +40991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" s="8">
         <v>32</v>
       </c>
@@ -41020,7 +41020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" s="8">
         <v>33</v>
       </c>
@@ -41049,7 +41049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" s="8">
         <v>34</v>
       </c>
@@ -41078,7 +41078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" s="8">
         <v>35</v>
       </c>
@@ -41107,7 +41107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" s="8">
         <v>36</v>
       </c>
@@ -41136,7 +41136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" s="8">
         <v>37</v>
       </c>
@@ -41165,7 +41165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" s="8">
         <v>38</v>
       </c>
@@ -41194,7 +41194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" s="8">
         <v>39</v>
       </c>
@@ -41223,7 +41223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" s="8">
         <v>40</v>
       </c>
@@ -41252,7 +41252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" s="8">
         <v>41</v>
       </c>
@@ -41281,7 +41281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" s="8">
         <v>42</v>
       </c>
@@ -41310,7 +41310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" s="8">
         <v>43</v>
       </c>
@@ -41339,7 +41339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" s="8">
         <v>44</v>
       </c>
@@ -41368,7 +41368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" s="8">
         <v>45</v>
       </c>
@@ -41397,7 +41397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" s="8">
         <v>46</v>
       </c>
@@ -41426,7 +41426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" s="8">
         <v>47</v>
       </c>
@@ -41455,7 +41455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" s="8">
         <v>48</v>
       </c>
@@ -41484,7 +41484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" s="8">
         <v>49</v>
       </c>
@@ -41513,7 +41513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" s="8">
         <v>50</v>
       </c>
@@ -41542,12 +41542,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" s="8">
         <v>129</v>
       </c>
@@ -41558,7 +41558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" s="8">
         <v>130</v>
       </c>
@@ -41569,7 +41569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A937" s="8">
         <v>131</v>
       </c>
@@ -41580,7 +41580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A938" s="8">
         <v>132</v>
       </c>
@@ -41591,7 +41591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A939" s="8">
         <v>133</v>
       </c>
@@ -41602,7 +41602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A940" s="8">
         <v>134</v>
       </c>
@@ -41613,7 +41613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A941" s="8">
         <v>135</v>
       </c>
@@ -41624,7 +41624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A942" s="8">
         <v>136</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A943" s="8">
         <v>137</v>
       </c>
@@ -41646,7 +41646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A944" s="8">
         <v>138</v>
       </c>
@@ -41657,7 +41657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A945" s="8">
         <v>139</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A946" s="8">
         <v>140</v>
       </c>
@@ -41679,7 +41679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A947" s="8">
         <v>141</v>
       </c>
@@ -41690,7 +41690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A948" s="8">
         <v>142</v>
       </c>
@@ -41701,7 +41701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A949" s="8">
         <v>143</v>
       </c>
@@ -41712,7 +41712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A950" s="8">
         <v>144</v>
       </c>
@@ -41723,7 +41723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A951" s="8">
         <v>145</v>
       </c>
@@ -41734,7 +41734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A952" s="8">
         <v>146</v>
       </c>
